--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D6A5BE-19A8-47DB-81BA-94FD00121FFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C68F73-F8B8-4991-BD36-EBD74880CE89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,8 +775,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,8 +1649,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +1996,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C68F73-F8B8-4991-BD36-EBD74880CE89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDACF41-30FB-4DD0-9EE1-F7E2EFECE481}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1670,119 +1670,119 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
+      <c r="B5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="1">
-        <v>4</v>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1">
-        <v>10</v>
+      <c r="B8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="1">
-        <v>11</v>
+      <c r="B9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="1">
-        <v>12</v>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
+      <c r="B11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="1">
-        <v>5</v>
+      <c r="B12">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="1">
-        <v>6</v>
+      <c r="B13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1">
-        <v>7</v>
+      <c r="B14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="1">
-        <v>14</v>
+      <c r="B15">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>4</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>104</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>109</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>110</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2027,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +2041,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +2055,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2083,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +2097,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,35 +2111,35 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>16</v>
+      <c r="B9">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>17</v>
+      <c r="B10">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2153,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2167,12 +2167,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2180,8 +2180,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="2">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>11</v>
